--- a/data/coded_segments/zm_6_3.xlsx
+++ b/data/coded_segments/zm_6_3.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A80DA367-408A-BA4C-92BA-235679550166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2057,7 +2053,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2207,10 +2203,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2233,7 +2232,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2245,7 +2244,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2262,9 +2261,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2292,14 +2291,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2327,6 +2343,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2478,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M240"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -2700,7 +2733,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2741,7 +2774,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -5119,7 +5152,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>13</v>
       </c>
@@ -5201,7 +5234,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>13</v>
       </c>
@@ -5242,7 +5275,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>13</v>
       </c>
@@ -5406,7 +5439,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>13</v>
       </c>
@@ -5529,7 +5562,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
@@ -5570,7 +5603,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>13</v>
       </c>
@@ -6718,7 +6751,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>13</v>
       </c>
@@ -7087,7 +7120,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>13</v>
       </c>
@@ -7169,7 +7202,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>13</v>
       </c>
@@ -7210,7 +7243,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>13</v>
       </c>
@@ -7292,7 +7325,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>13</v>
       </c>
@@ -7333,7 +7366,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -7374,7 +7407,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>13</v>
       </c>
@@ -7415,7 +7448,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>13</v>
       </c>
@@ -7456,7 +7489,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>13</v>
       </c>
@@ -7579,7 +7612,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>13</v>
       </c>
@@ -7702,7 +7735,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>13</v>
       </c>
@@ -7784,7 +7817,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>13</v>
       </c>
@@ -7825,7 +7858,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>13</v>
       </c>
@@ -7866,7 +7899,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
@@ -8276,7 +8309,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>13</v>
       </c>
@@ -8440,7 +8473,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>13</v>
       </c>
@@ -8604,7 +8637,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>13</v>
       </c>
@@ -8645,7 +8678,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>13</v>
       </c>
@@ -8727,7 +8760,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>13</v>
       </c>
@@ -9055,7 +9088,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>13</v>
       </c>
@@ -9178,7 +9211,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>13</v>
       </c>
@@ -9260,7 +9293,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>13</v>
       </c>
@@ -9301,7 +9334,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -9342,7 +9375,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>13</v>
       </c>

--- a/data/coded_segments/zm_6_3.xlsx
+++ b/data/coded_segments/zm_6_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A80DA367-408A-BA4C-92BA-235679550166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F88CCEC5-8E94-F249-895E-F2666A00A188}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="670">
   <si>
     <t>Color</t>
   </si>
@@ -1837,12 +1837,21 @@
     <t>2: 2990</t>
   </si>
   <si>
-    <t>2: 3011</t>
+    <t>2: 3010</t>
   </si>
   <si>
     <t>2: 3012</t>
   </si>
   <si>
+    <t xml:space="preserve"> 16</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/31/19 13:39:47</t>
+  </si>
+  <si>
     <t>2: 3034</t>
   </si>
   <si>
@@ -1912,12 +1921,6 @@
     <t>7/23/18 12:47:00</t>
   </si>
   <si>
-    <t>2: 3010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16</t>
-  </si>
-  <si>
     <t>2: 3078</t>
   </si>
   <si>
@@ -2048,6 +2051,48 @@
   </si>
   <si>
     <t xml:space="preserve"> bloody diarrhea</t>
+  </si>
+  <si>
+    <t>1/31/19 13:37:08</t>
+  </si>
+  <si>
+    <t>1/31/19 13:37:13</t>
+  </si>
+  <si>
+    <t>1/31/19 13:37:17</t>
+  </si>
+  <si>
+    <t>1/31/19 13:37:25</t>
+  </si>
+  <si>
+    <t>1/31/19 13:37:30</t>
+  </si>
+  <si>
+    <t>1/31/19 13:37:54</t>
+  </si>
+  <si>
+    <t>1/31/19 13:37:59</t>
+  </si>
+  <si>
+    <t>1/31/19 13:38:04</t>
+  </si>
+  <si>
+    <t>1/31/19 13:38:38</t>
+  </si>
+  <si>
+    <t>1/31/19 13:38:56</t>
+  </si>
+  <si>
+    <t>1/31/19 13:39:24</t>
+  </si>
+  <si>
+    <t>1/31/19 13:39:29</t>
+  </si>
+  <si>
+    <t>1/31/19 13:39:33</t>
+  </si>
+  <si>
+    <t>1/31/19 13:39:37</t>
   </si>
 </sst>
 </file>
@@ -2512,7 +2557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M240"/>
+  <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10303,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>99</v>
+        <v>586</v>
       </c>
       <c r="J190" s="3">
         <v>2</v>
       </c>
       <c r="K190" s="4">
-        <v>1.1141E-2</v>
+        <v>1.1140819964349376E-2</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>20</v>
+        <v>587</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10335,16 +10380,16 @@
         <v>85</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="H191" s="3">
         <v>0</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="J191" s="3">
         <v>1</v>
@@ -10376,16 +10421,16 @@
         <v>85</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="H192" s="3">
         <v>0</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="J192" s="3">
         <v>2</v>
@@ -10417,16 +10462,16 @@
         <v>85</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="H193" s="3">
         <v>0</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="J193" s="3">
         <v>2</v>
@@ -10458,16 +10503,16 @@
         <v>85</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="H194" s="3">
         <v>0</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="J194" s="3">
         <v>3</v>
@@ -10499,16 +10544,16 @@
         <v>85</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="H195" s="3">
         <v>0</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="J195" s="3">
         <v>2</v>
@@ -10561,7 +10606,7 @@
         <v>20</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10602,7 +10647,7 @@
         <v>20</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10643,7 +10688,7 @@
         <v>20</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10684,7 +10729,7 @@
         <v>20</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10725,7 +10770,7 @@
         <v>20</v>
       </c>
       <c r="M200" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10745,10 +10790,10 @@
         <v>110</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="H201" s="3">
         <v>0</v>
@@ -10766,7 +10811,7 @@
         <v>20</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="202" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10807,7 +10852,7 @@
         <v>20</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10827,10 +10872,10 @@
         <v>113</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="H203" s="3">
         <v>0</v>
@@ -10848,7 +10893,7 @@
         <v>20</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="204" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10889,7 +10934,7 @@
         <v>20</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="205" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10909,10 +10954,10 @@
         <v>116</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="H205" s="3">
         <v>0</v>
@@ -10930,7 +10975,7 @@
         <v>20</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10971,7 +11016,7 @@
         <v>20</v>
       </c>
       <c r="M206" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="207" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10991,10 +11036,10 @@
         <v>120</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="H207" s="3">
         <v>0</v>
@@ -11012,7 +11057,7 @@
         <v>20</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11053,7 +11098,7 @@
         <v>20</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11094,7 +11139,7 @@
         <v>20</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11135,7 +11180,7 @@
         <v>20</v>
       </c>
       <c r="M210" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11176,7 +11221,7 @@
         <v>20</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11217,7 +11262,7 @@
         <v>20</v>
       </c>
       <c r="M212" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11237,7 +11282,7 @@
         <v>123</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>585</v>
@@ -11246,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="J213" s="3">
         <v>2</v>
@@ -11258,7 +11303,7 @@
         <v>20</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11299,7 +11344,7 @@
         <v>20</v>
       </c>
       <c r="M214" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11319,16 +11364,16 @@
         <v>124</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="H215" s="3">
         <v>0</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="J215" s="3">
         <v>1</v>
@@ -11340,7 +11385,7 @@
         <v>20</v>
       </c>
       <c r="M215" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11381,7 +11426,7 @@
         <v>20</v>
       </c>
       <c r="M216" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11401,16 +11446,16 @@
         <v>126</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="H217" s="3">
         <v>0</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="J217" s="3">
         <v>2</v>
@@ -11422,7 +11467,7 @@
         <v>20</v>
       </c>
       <c r="M217" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11463,7 +11508,7 @@
         <v>20</v>
       </c>
       <c r="M218" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11483,10 +11528,10 @@
         <v>129</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H219" s="3">
         <v>0</v>
@@ -11504,7 +11549,7 @@
         <v>20</v>
       </c>
       <c r="M219" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11545,7 +11590,7 @@
         <v>20</v>
       </c>
       <c r="M220" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11565,16 +11610,16 @@
         <v>305</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="H221" s="3">
         <v>0</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="J221" s="3">
         <v>2</v>
@@ -11586,7 +11631,7 @@
         <v>20</v>
       </c>
       <c r="M221" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11603,7 +11648,7 @@
         <v>526</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>564</v>
@@ -11627,7 +11672,7 @@
         <v>20</v>
       </c>
       <c r="M222" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="223" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11644,19 +11689,19 @@
         <v>526</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="H223" s="3">
         <v>0</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="J223" s="3">
         <v>3</v>
@@ -11668,7 +11713,7 @@
         <v>20</v>
       </c>
       <c r="M223" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="224" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11685,7 +11730,7 @@
         <v>526</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>566</v>
@@ -11709,7 +11754,7 @@
         <v>20</v>
       </c>
       <c r="M224" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="225" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11726,19 +11771,19 @@
         <v>526</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="H225" s="3">
         <v>0</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="J225" s="3">
         <v>2</v>
@@ -11750,7 +11795,7 @@
         <v>20</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="226" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11767,7 +11812,7 @@
         <v>526</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>568</v>
@@ -11791,7 +11836,7 @@
         <v>20</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="227" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11808,19 +11853,19 @@
         <v>526</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H227" s="3">
         <v>0</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="J227" s="3">
         <v>3</v>
@@ -11832,7 +11877,7 @@
         <v>20</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="228" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11852,16 +11897,16 @@
         <v>130</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H228" s="3">
         <v>0</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J228" s="3">
         <v>15</v>
@@ -11873,7 +11918,7 @@
         <v>20</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="229" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11893,10 +11938,10 @@
         <v>135</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H229" s="3">
         <v>0</v>
@@ -11914,7 +11959,7 @@
         <v>20</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="230" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11934,16 +11979,16 @@
         <v>286</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H230" s="3">
         <v>0</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="J230" s="3">
         <v>5</v>
@@ -11955,7 +12000,7 @@
         <v>20</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="231" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11975,7 +12020,7 @@
         <v>143</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>528</v>
@@ -11984,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J231" s="3">
         <v>5</v>
@@ -11996,7 +12041,7 @@
         <v>20</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12016,16 +12061,16 @@
         <v>295</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H232" s="3">
         <v>0</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J232" s="3">
         <v>9</v>
@@ -12037,7 +12082,7 @@
         <v>20</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="233" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12057,16 +12102,16 @@
         <v>300</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H233" s="3">
         <v>0</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J233" s="3">
         <v>32</v>
@@ -12078,7 +12123,7 @@
         <v>20</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="234" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12098,16 +12143,16 @@
         <v>148</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H234" s="3">
         <v>0</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J234" s="3">
         <v>11</v>
@@ -12119,7 +12164,7 @@
         <v>20</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="235" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12139,7 +12184,7 @@
         <v>152</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>288</v>
@@ -12148,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J235" s="3">
         <v>4</v>
@@ -12160,7 +12205,7 @@
         <v>20</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="236" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12177,10 +12222,10 @@
         <v>526</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>528</v>
@@ -12189,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J236" s="3">
         <v>5</v>
@@ -12201,7 +12246,7 @@
         <v>20</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="237" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12221,16 +12266,16 @@
         <v>139</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H237" s="3">
         <v>0</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J237" s="3">
         <v>5</v>
@@ -12242,7 +12287,7 @@
         <v>20</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="238" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12262,16 +12307,16 @@
         <v>156</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H238" s="3">
         <v>0</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J238" s="3">
         <v>20</v>
@@ -12283,7 +12328,7 @@
         <v>20</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12303,16 +12348,16 @@
         <v>156</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H239" s="3">
         <v>0</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J239" s="3">
         <v>5</v>
@@ -12324,7 +12369,7 @@
         <v>20</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="240" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12344,16 +12389,16 @@
         <v>156</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H240" s="3">
         <v>0</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="J240" s="3">
         <v>15</v>
@@ -12365,7 +12410,581 @@
         <v>20</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A241" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H241" s="3">
+        <v>0</v>
+      </c>
+      <c r="I241" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J241" s="3">
+        <v>3</v>
+      </c>
+      <c r="K241" s="4">
+        <v>1.4985014985014984E-2</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M241" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A242" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H242" s="3">
+        <v>0</v>
+      </c>
+      <c r="I242" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J242" s="3">
+        <v>3</v>
+      </c>
+      <c r="K242" s="4">
+        <v>1.4985014985014984E-2</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M242" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H243" s="3">
+        <v>0</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J243" s="3">
+        <v>3</v>
+      </c>
+      <c r="K243" s="4">
+        <v>1.4985014985014984E-2</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M243" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A244" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H244" s="3">
+        <v>0</v>
+      </c>
+      <c r="I244" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J244" s="3">
+        <v>3</v>
+      </c>
+      <c r="K244" s="4">
+        <v>1.4985014985014984E-2</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M244" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A245" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H245" s="3">
+        <v>0</v>
+      </c>
+      <c r="I245" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J245" s="3">
+        <v>3</v>
+      </c>
+      <c r="K245" s="4">
+        <v>1.4985014985014984E-2</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M245" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A246" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H246" s="3">
+        <v>0</v>
+      </c>
+      <c r="I246" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J246" s="3">
+        <v>2</v>
+      </c>
+      <c r="K246" s="4">
+        <v>6.7378634235084056E-3</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M246" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A247" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H247" s="3">
+        <v>0</v>
+      </c>
+      <c r="I247" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J247" s="3">
+        <v>2</v>
+      </c>
+      <c r="K247" s="4">
+        <v>6.7378634235084056E-3</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M247" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A248" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H248" s="3">
+        <v>0</v>
+      </c>
+      <c r="I248" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J248" s="3">
+        <v>2</v>
+      </c>
+      <c r="K248" s="4">
+        <v>6.7378634235084056E-3</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M248" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A249" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="H249" s="3">
+        <v>0</v>
+      </c>
+      <c r="I249" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J249" s="3">
+        <v>4</v>
+      </c>
+      <c r="K249" s="4">
+        <v>2.2281639928698752E-2</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M249" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A250" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H250" s="3">
+        <v>0</v>
+      </c>
+      <c r="I250" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="J250" s="3">
+        <v>3</v>
+      </c>
+      <c r="K250" s="4">
+        <v>1.6711229946524062E-2</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M250" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A251" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H251" s="3">
+        <v>0</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J251" s="3">
+        <v>4</v>
+      </c>
+      <c r="K251" s="4">
+        <v>2.2281639928698752E-2</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M251" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A252" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H252" s="3">
+        <v>0</v>
+      </c>
+      <c r="I252" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J252" s="3">
+        <v>4</v>
+      </c>
+      <c r="K252" s="4">
+        <v>2.2281639928698752E-2</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M252" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A253" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="H253" s="3">
+        <v>0</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J253" s="3">
+        <v>4</v>
+      </c>
+      <c r="K253" s="4">
+        <v>2.2281639928698752E-2</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M253" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="H254" s="3">
+        <v>0</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J254" s="3">
+        <v>4</v>
+      </c>
+      <c r="K254" s="4">
+        <v>2.2281639928698752E-2</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M254" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>
